--- a/public/sample_uploads/xirr/3 - capital_commitments.xlsx
+++ b/public/sample_uploads/xirr/3 - capital_commitments.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t xml:space="preserve">Stakeholder *</t>
   </si>
@@ -67,6 +67,9 @@
     <t xml:space="preserve">As Of</t>
   </si>
   <si>
+    <t xml:space="preserve">Form Tag</t>
+  </si>
+  <si>
     <t xml:space="preserve">AA</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">	01/01/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default</t>
   </si>
   <si>
     <t xml:space="preserve">AB</t>
@@ -204,12 +210,12 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -217,7 +223,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -413,193 +427,208 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="20.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="20.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="0" t="n">
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>102</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="0" t="n">
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="G5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
